--- a/media/excels/4-4industrial_production_volume_at_current_prices.xlsx
+++ b/media/excels/4-4industrial_production_volume_at_current_prices.xlsx
@@ -442,7 +442,7 @@
       <c r="F1" t="inlineStr">
         <is>
           <t>2023
- Январь - Октябрь</t>
+ Январь - Декабрь</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>38 119 725</t>
+          <t>46 401 716</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1 262 544</t>
+          <t>1 571 287</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1 416 992</t>
+          <t>1 743 606</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2 066 394</t>
+          <t>2 506 189</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1 442 075</t>
+          <t>1 716 722</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9 135 754</t>
+          <t>10 895 668</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2 904 681</t>
+          <t>3 460 647</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>694 492</t>
+          <t>847 706</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>253 513</t>
+          <t>320 625</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2 834 336</t>
+          <t>3 459 798</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2 189 299</t>
+          <t>2 652 626</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>847 936</t>
+          <t>1 023 900</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2 390 244</t>
+          <t>2 989 380</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2 525 324</t>
+          <t>3 095 123</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>514 349</t>
+          <t>647 567</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>758 031</t>
+          <t>1 000 977</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>864 927</t>
+          <t>1 066 873</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1 993 561</t>
+          <t>2 390 908</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1 533 308</t>
+          <t>1 938 999</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1 639 900</t>
+          <t>2 022 137</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>852 055</t>
+          <t>1 050 967</t>
         </is>
       </c>
     </row>
